--- a/data/trans_dic/P1804_2016_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1804_2016_2023-Estudios-trans_dic.xlsx
@@ -618,13 +618,13 @@
         <v>0.1173267922436589</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08431662076051334</v>
+        <v>0.08431662076051336</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1042130814338748</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.07250288032310685</v>
+        <v>0.07250288032310684</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06822404493105826</v>
+        <v>0.06704935605427446</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0397604473903539</v>
+        <v>0.04073613952238819</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09779025132902716</v>
+        <v>0.09772061357700899</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07028797673105314</v>
+        <v>0.07152777126597103</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09026369822436543</v>
+        <v>0.08966014265552888</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06228450533588256</v>
+        <v>0.06164624624229104</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1095696263513288</v>
+        <v>0.1091906460761224</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07671539953607288</v>
+        <v>0.07583172737442681</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.13994827624645</v>
+        <v>0.1416087339080991</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1010955835486586</v>
+        <v>0.1006305490199854</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1194107350313642</v>
+        <v>0.1202339778741582</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08529772123264255</v>
+        <v>0.08295719540584294</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.08325303803681308</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07417940214996924</v>
+        <v>0.07417940214996922</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0677584935028795</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04355169840712024</v>
+        <v>0.04426888132296693</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04380152407391472</v>
+        <v>0.04310778893869278</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07121720723622633</v>
+        <v>0.07157637995794426</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06398276136881843</v>
+        <v>0.06304389071320876</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05985412802437997</v>
+        <v>0.06047501504274343</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05557295981372112</v>
+        <v>0.05640256426619344</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06411787049420249</v>
+        <v>0.06357866734334616</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06813835429001192</v>
+        <v>0.0662548861718549</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09790560865180532</v>
+        <v>0.0967247364153157</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0865411868995184</v>
+        <v>0.08544311571704605</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07672153885874095</v>
+        <v>0.07614727171576308</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07257393550000139</v>
+        <v>0.07200485255070985</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.06991491156546562</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.09351889391236114</v>
+        <v>0.09351889391236112</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1234290759963656</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04905269209980499</v>
+        <v>0.0503822583856594</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07090544185448663</v>
+        <v>0.07064820474394824</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09570036552872042</v>
+        <v>0.09692686404586713</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09832604401347417</v>
+        <v>0.09705026240675205</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08091887333720996</v>
+        <v>0.07935217018541672</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09043240604795495</v>
+        <v>0.09052393213651372</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0928977686329417</v>
+        <v>0.09671756652855765</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.124042678517543</v>
+        <v>0.1243850184421343</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1590794766112469</v>
+        <v>0.1555811433142243</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1394184493568176</v>
+        <v>0.1407315786350574</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1149174790755001</v>
+        <v>0.1169280696581356</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1244393241597827</v>
+        <v>0.1251537285546101</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.06326634177604672</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06208088218508402</v>
+        <v>0.06208088218508403</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.09909462876908981</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05551510002966122</v>
+        <v>0.05518041074738676</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05222271203274215</v>
+        <v>0.05220817711728316</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08821944788229306</v>
+        <v>0.08876938414582437</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07713723583219728</v>
+        <v>0.07683560214391567</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07560097538794661</v>
+        <v>0.07498516879548682</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06776111920832989</v>
+        <v>0.06849362792420914</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07170955568058866</v>
+        <v>0.07109598314870932</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07118749919049797</v>
+        <v>0.07100720627373226</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1096700637571081</v>
+        <v>0.1115718285440539</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09499721460998523</v>
+        <v>0.09396043873238308</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08938085705906119</v>
+        <v>0.08843981294369174</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0804257978306553</v>
+        <v>0.08006826072476392</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>51465</v>
+        <v>50578</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>23003</v>
+        <v>23567</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>97268</v>
+        <v>97199</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>57737</v>
+        <v>58756</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>157872</v>
+        <v>156816</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>87197</v>
+        <v>86303</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>82654</v>
+        <v>82368</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>44382</v>
+        <v>43871</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>139201</v>
+        <v>140853</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>83044</v>
+        <v>82662</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>208850</v>
+        <v>210290</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>119414</v>
+        <v>116138</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>90430</v>
+        <v>91919</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>97702</v>
+        <v>96155</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>141601</v>
+        <v>142315</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>138533</v>
+        <v>136500</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>243288</v>
+        <v>245812</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>244284</v>
+        <v>247931</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>133133</v>
+        <v>132014</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>151987</v>
+        <v>147786</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>194666</v>
+        <v>192318</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>187376</v>
+        <v>184998</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>311849</v>
+        <v>309515</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>319015</v>
+        <v>316514</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>26826</v>
+        <v>27553</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>50455</v>
+        <v>50272</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>52553</v>
+        <v>53226</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>72258</v>
+        <v>71320</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>88689</v>
+        <v>86972</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>130807</v>
+        <v>130940</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>50804</v>
+        <v>52893</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>88267</v>
+        <v>88511</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>87357</v>
+        <v>85436</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>102455</v>
+        <v>103420</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>125953</v>
+        <v>128156</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>179997</v>
+        <v>181030</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>187509</v>
+        <v>186378</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>183860</v>
+        <v>183808</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>311600</v>
+        <v>313542</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>287065</v>
+        <v>285942</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>522381</v>
+        <v>518126</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>490737</v>
+        <v>496042</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>242207</v>
+        <v>240135</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>250629</v>
+        <v>249994</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>387366</v>
+        <v>394083</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>353531</v>
+        <v>349672</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>617597</v>
+        <v>611094</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>582457</v>
+        <v>579868</v>
       </c>
     </row>
     <row r="20">
